--- a/data/entity_link_benchmark.xlsx
+++ b/data/entity_link_benchmark.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\labwork_SE\linuxKG\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3715417-973D-4DFB-B3F5-B4DF945061E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24460" windowHeight="11480"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="224">
   <si>
     <t>mention_id</t>
   </si>
@@ -92,620 +97,658 @@
     <t>CONFIG_NUMA</t>
   </si>
   <si>
+    <t>40472</t>
+  </si>
+  <si>
+    <t>['bf29bfaa54901a4bdee2a18cd10eb951a884a5f9']</t>
+  </si>
+  <si>
+    <t>destroy_large_folio()</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>40471</t>
+  </si>
+  <si>
+    <t>['99a9e0b83ab9955e604397717b82267feb021df3', 'dd6fa0b61814492476463149c91110e529364e82', '454a00c40a21c59e99c526fe8cc57bd029cf8f0e', '8dc4a8f1e038189cb575f89bcd23364698b88cc1', '0f2f43fabb95192c73b19586ef7536d7ac7c2f8c']</t>
+  </si>
+  <si>
+    <t>in hpage_collapse_scan_file()</t>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'hpage', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Page_(computer_memory)#Huge_pages'}]</t>
+  </si>
+  <si>
+    <t>40465</t>
+  </si>
+  <si>
+    <t>['ad1ac8d94cde7709e3ea5360963ff70df2c0b4aa', '13cf577e6b66a148d6d63f5ef7801f4b61d5850f', '1d65b771bc08cd054cf6d3766a72e113dc46d62f', '1043173eb5eb351a1dba11cca12705075fe74a9e', 'd50791c2bee9ed97b1dd81db9bbb11caddcdfb0d']</t>
+  </si>
+  <si>
+    <t>Static random selection</t>
+  </si>
+  <si>
+    <t>40449</t>
+  </si>
+  <si>
+    <t>['3c6152940584290668b35fa0800026f6a1ae05fe']</t>
+  </si>
+  <si>
+    <t>mmap lock hold time</t>
+  </si>
+  <si>
+    <t>['284e05920498788c5df1a7dd6424adb426498e1c', '350f6bbca1de515cd7519a33661cefc93ea06054', '4ec31152a80d83d74d231d964703a721236244ef', 'c4fd825e188471d4d2796e02729dd029b3b23210', '8f5fd0e1a02020062c52063f15d4e5c426ee3547']</t>
+  </si>
+  <si>
+    <t>do_cow_fault</t>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'cow', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Copy-on-write'}]</t>
+  </si>
+  <si>
+    <t>THPs</t>
+  </si>
+  <si>
+    <t>['a349d72fd9efc87c8fd1d16d3164752d84a7275b', '146b42e07494e45f7c7bcf2cbf7afd1424afd78e', 'de2e4626c70605b7ff5ab32b75336547663d465f', '3d140215a6aec37f112aec1606c6a76f7e4443d3', '8211dad6279817a8966ff6b74c2c588dd4166f45']</t>
+  </si>
+  <si>
+    <t>per-page to per-folio</t>
+  </si>
+  <si>
+    <t>['bcc6cc832573a99d1f935c89a28e2c71fd1aaf0c', '63497b716be30fb268b2358836efb4bb9e615f15', 'ac4cfaccedac891d29560ddfb64cb5c1e710e1e1', '8b5989f3333717273d02ab87ba8781f72a6783ab', 'e49da075cfdbd9fdf27103e1f454d4a0401d9025']</t>
+  </si>
+  <si>
+    <t>kunit</t>
+  </si>
+  <si>
+    <t>40477</t>
+  </si>
+  <si>
+    <t>['ab9bda001b681c293fb72ef21f083adfbcd78028', '2f1abcfccd86826777b2bcb2bb4e0d149a90ccf5', '26713c8908752a7edca18dcafe88e36dccfb41a2', '4c45c20d53488d05da6e240f3ac4dffbd3963f94', '96a7cb23778a4b2f8fbe714cbcfa15d1475d430f']</t>
+  </si>
+  <si>
+    <t>['203b7b6aad6769a43987deb81c35456de8bb16c7', 'af4fcb0729329cc4b3f6977d7f75562a00174bd1', '9f1f5b60e76d44fa85fef6970b7477f72d3999eb', 'de74976eb65151a2f568e477fc2e0032df5b22b4', '86f35f69db8e7d169c36472a349507ab0a461f49']</t>
+  </si>
+  <si>
+    <t>gup test matrix</t>
+  </si>
+  <si>
+    <t>40450</t>
+  </si>
+  <si>
+    <t>['4849807114b83e1897381ed3f851632f376a0b7e', '2bc48136224592fe4f8f50629d0469d6d0274207', 'de4ec376df7bd2db4aa887b350a681686ea54064']</t>
+  </si>
+  <si>
+    <t>40474</t>
+  </si>
+  <si>
+    <t>['aee79d4e5271cee4ffa89ed830189929a6272eb8']</t>
+  </si>
+  <si>
+    <t>VMA insertion</t>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'VMA', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Virtual_memory'}]</t>
+  </si>
+  <si>
+    <t>40453</t>
+  </si>
+  <si>
+    <t>['6852c46c783d20a4c0153d14d2990040e5e6e47e']</t>
+  </si>
+  <si>
+    <t>buffer</t>
+  </si>
+  <si>
+    <t>40454</t>
+  </si>
+  <si>
+    <t>['8147c4c4546f9f05ef03bb839b741473b28bb560', '5f6d28622ffc7fa356b2745b088c831ebb8546b0']</t>
+  </si>
+  <si>
+    <t>userfaultfd API</t>
+  </si>
+  <si>
+    <t>['597425df4fecd272ca48f73feca7833433c16e12', '8a13897fb0daa8f56821f263f0c63661e1c6acae', 'f442ab50f5fb581804e4c4b6f8ead394fe975589', '7cf0f9e83769cb7862dff0221a3ace67d9b2ed9f', '99aa77215ad0254bf15f84e58fe9f3f1d942ff0f']</t>
+  </si>
+  <si>
+    <t>destroy_large_folio</t>
+  </si>
+  <si>
+    <t>VMA operations</t>
+  </si>
+  <si>
+    <t>for large folio</t>
+  </si>
+  <si>
+    <t>Per-page to Per-folio</t>
+  </si>
+  <si>
+    <t>['27a8b944fe91503ba15241d9a8504a34af0009fa', '15fa3e8e32692a423209a1808ef098f7ec3174f5', '994209410919f2b84b7e4ab2e78785d9715308ad', '063e409dcc37a5834fe94342b3cbcfe17d094eed', 'e70bbca607424dbb236cc641adba39c2cc0d65c5']</t>
+  </si>
+  <si>
+    <t>MADV_UNMERGEABLE</t>
+  </si>
+  <si>
+    <t>40458</t>
+  </si>
+  <si>
+    <t>['79271476b3362a9e69adae949a520647f8af3559', 'e2942062e01df85b4692460fe5b48ab0c90fdb95', '6080d19f07043ade61094d0f58b14c05e1694a39', '1a8e84305783bddbae708f28178c6d0aa6321913', '3d0745e59c840e64c6b7bf102c43bec29337605d']</t>
+  </si>
+  <si>
+    <t>Entirely</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>filemap_map_folio_range()</t>
+  </si>
+  <si>
+    <t>Unneeded</t>
+  </si>
+  <si>
+    <t>40456</t>
+  </si>
+  <si>
+    <t>['479c33049116f2d138b4dfec328961881cc26b33', '9962ed64bd2154863ab3b63b15a2b55e39dc7117', '6d2790d95d7cffaf0def36270032ce5228dd43a5', 'a3ed1e9b63a2703caab4fe63ddb560991a5f618c', 'bc74b53f29e1025a08e97f8e507968608a567f26']</t>
+  </si>
+  <si>
+    <t>__lruvec_stat for large folio</t>
+  </si>
+  <si>
+    <t>slab allocator</t>
+  </si>
+  <si>
+    <t>40476</t>
+  </si>
+  <si>
+    <t>['a5f6164831104a7441a0c4101c5b74cd59fbdfa6', 'b94692e84dccf12dd30839c4e97b9ba028036a8f', 'ab1cd02083d046a25b48a2cad71ace6d5ddf0e9e', '016fec91013cfb27c9f5a101a87ae8266537fed1', '8f03d74f716313892908819a389ff9ede483c3a5']</t>
+  </si>
+  <si>
+    <t>40478</t>
+  </si>
+  <si>
+    <t>['8b47933544a68a62a9c4e35f8d8a6d2a2c935823']</t>
+  </si>
+  <si>
+    <t>If cachefiles object contains data when opened</t>
+  </si>
+  <si>
+    <t>40468</t>
+  </si>
+  <si>
+    <t>['b4fa966f03b7401ceacd4ffd7227197afb2b8376', '0201ebf274a306a6ebb95e5dc2d6a0a27c737cac']</t>
+  </si>
+  <si>
+    <t>truncate_inode_pages_final</t>
+  </si>
+  <si>
+    <t>critical section</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Critical_section</t>
+  </si>
+  <si>
+    <t>vma_assert_write_locked()</t>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'vma', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Virtual_memory'}]</t>
+  </si>
+  <si>
+    <t>40463</t>
+  </si>
+  <si>
+    <t>['49b0638502da097c15d46cd4e871dbaa022caf7c', 'ce2fc5fffdfa9fc1412aff108afa102ddf82fd2b', 'e727bfd5e73a35ecbc4a01a15c659b9fafaa97c0', '60081bf19b0ec8fa40c589bd361fa2bc763f1050', 'ad9f006351c3368171458ae7ab14d72f031b239f']</t>
+  </si>
+  <si>
+    <t>bio_first_folio_all()</t>
+  </si>
+  <si>
+    <t>pgtable management</t>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'pgtable', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Page_table'}]</t>
+  </si>
+  <si>
+    <t>['cf95e337cb63cfbf5c9ea1a1f64f9818b979e3b3', '610d06576737f5401647a4aab46558c1114898fb']</t>
+  </si>
+  <si>
+    <t>OSQ_Lock</t>
+  </si>
+  <si>
+    <t>hugetlb gup requests</t>
+  </si>
+  <si>
+    <t>folio_undo_large_rmappable()</t>
+  </si>
+  <si>
+    <t>ops-&gt;migrate_to_ram</t>
+  </si>
+  <si>
+    <t>40464</t>
+  </si>
+  <si>
+    <t>['b243dcbf2f13856e39e18df3a15a65f6fe33db85', '7a32b58be9bab8f0440a4af526bfb1269e5affdb', '4089eef0e6ac1a179c58304c657b3df3bb6fe509', 'fdc724d6aa44efd75cc9b6a3c3900baac44bc50a', '1235ccd05b6dd6970ff50baea99aa994023fbc4a']</t>
+  </si>
+  <si>
+    <t>KVM</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Kernel-based_Virtual_Machine</t>
+  </si>
+  <si>
+    <t>replace_page_tables()</t>
+  </si>
+  <si>
+    <t>page table range API</t>
+  </si>
+  <si>
+    <t>['e724e7aaf9ca794670a4d4931af7a7e24e37fec3', '9ff633944165d11c53c088d9596db3da66e90396', '876397837d582ce72f977ac3e635ce74eebcecc9', 'a6d01af08b2e40772cf97e700b699850f6862886', '5553b15a4bbba8039e1f31b63642048286f540dc']</t>
+  </si>
+  <si>
+    <t>vma lock</t>
+  </si>
+  <si>
+    <t>own ioremap_prot(), ioremap() and iounmap() definitions</t>
+  </si>
+  <si>
+    <t>['0b1f77e74b5a9234e83dc89f1593b769547a37fa', '8d05554dca2af6a77dc38a152f4e84fdf7e35179', '53c98e35dcbcacdb8e5c4d9c8fd6dfa8962af5c7', '7613366a190202a8ebe8090ca4758b551f1b7feb', 'dfdc6ba95768b4935058dcf2a8a09874289ba88f']</t>
+  </si>
+  <si>
+    <t>Architectures</t>
+  </si>
+  <si>
+    <t>do_shared_fault</t>
+  </si>
+  <si>
+    <t>accessed bit</t>
+  </si>
+  <si>
+    <t>page_add_file_rmap</t>
+  </si>
+  <si>
+    <t>Per-VMA locks</t>
+  </si>
+  <si>
+    <t>change in flag granularity</t>
+  </si>
+  <si>
+    <t>numa_cma=</t>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'numa', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Non-uniform_memory_access'}]</t>
+  </si>
+  <si>
+    <t>collapse_pte_mapped_thp()</t>
+  </si>
+  <si>
+    <t>['f9bff0e31881d03badf191d3b0005839391f5f2b', 'a379322022c0961fe0b638cdd842d3c38eeff92c', '3a255267f6dff40e193501cf731f409ce9175503', 'bc60abfbe687e886f1c38d49ef2a00e90b4b49cf', '29d26f1215de14721188988a59b1426abb85b7be']</t>
+  </si>
+  <si>
+    <t>specifying optional tests</t>
+  </si>
+  <si>
+    <t>cma_declare_contiguous_nid()</t>
+  </si>
+  <si>
+    <t>DAMON</t>
+  </si>
+  <si>
+    <t>lseek after HWPOISON subpage</t>
+  </si>
+  <si>
+    <t>40460</t>
+  </si>
+  <si>
+    <t>['9e130c4b000b0a3f0bf4b4c8e714bfe3d06ff4cc', 'b79f8eb408d0468df0d6082ed958b67d94adce65', '38c1ddbde6c6593e7c4bc17bde87232b7c577e7b', 'ba91e7e5d15a22946e6531c898e197e128bb6634']</t>
+  </si>
+  <si>
+    <t>multiple copies of generic slab caches</t>
+  </si>
+  <si>
+    <t>vma_start_write()</t>
+  </si>
+  <si>
+    <t>__get_user_pages()</t>
+  </si>
+  <si>
+    <t>DMA_PERNUMA_CMA</t>
+  </si>
+  <si>
+    <t>40473</t>
+  </si>
+  <si>
+    <t>['22e4a348f87c59df2c02f1efb7ba9a56b622c7b8']</t>
+  </si>
+  <si>
+    <t>PG_dcache_clean</t>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'dcache','wikipedia_link': 'https://en.wikipedia.org/wiki/Directory_(computing)#Lookup_cache'}]</t>
+  </si>
+  <si>
+    <t>40459</t>
+  </si>
+  <si>
+    <t>['b69f92a741405336fb17a8a3d67fc144192fe8e2', '6ad243b83b5094026fdb3171711ddb25246b3d8a', 'b823cb08e66212f5d90b5eaad59b2371b930e33f', 'ea7f03a441b58abcc9b619570a628c53e80665c6']</t>
+  </si>
+  <si>
+    <t>CoW</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Copy-on-write</t>
+  </si>
+  <si>
+    <t>['dd767aaa2fc8f1a000df0504f6231afcafe8a8e9', '458568c92953dee3716234711f1a2830a35261f3', '5502ea44f5ade35d32a397353956bc026b870400', 'ffe1e7861211aafe12977a3ed2f11bb6fe1e77ea', '57edfcfd3419b4799353d8cbd6ce49da075cfdbd']</t>
+  </si>
+  <si>
+    <t>gup_test</t>
+  </si>
+  <si>
+    <t>Operations on file's i_mmap tree</t>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'mmap', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Mmap'}]</t>
+  </si>
+  <si>
+    <t>HUGETLB_PAGE_DTOR</t>
+  </si>
+  <si>
+    <t>i_mmap tree</t>
+  </si>
+  <si>
+    <t>llist_del_all</t>
+  </si>
+  <si>
+    <t>flush_dcache_folio()</t>
+  </si>
+  <si>
+    <t>pmd_ptlock_init()</t>
+  </si>
+  <si>
+    <t>40451</t>
+  </si>
+  <si>
+    <t>['edbaefe53c6418ea11372e6b3ce952ab8caa1f78', '75b25d49ca6638f9a4eac47cff508b174743d907', '7e5f42ae3413785c68c383acb787f9ce8f243096', '6ed1b8a09deb0b99fd3b54e11535c80284689555', '7e11dca14b27e11596a0c49c7d20bc7816cb0508']</t>
+  </si>
+  <si>
+    <t>vma locking</t>
+  </si>
+  <si>
+    <t>pgtable_pte_ctor</t>
+  </si>
+  <si>
+    <t>free_transhuge_folio()</t>
+  </si>
+  <si>
+    <t>separate cache line</t>
+  </si>
+  <si>
+    <t>descriptor</t>
+  </si>
+  <si>
+    <t>['f7bda0d85dd7733143b5ea66987cb9b102bd0189', '9a35de4ffc209bd7956c4811ad17c4883791db43', 'bf2d4334f72e4e033166c5a3bf1331a7238eab9d', 'f5ecca06b3a5d0371ee27ee08aa06c686407a8af', '1865484af6b2ced2f367c1042b5f3816c11db148']</t>
+  </si>
+  <si>
+    <t>Parisc architecture</t>
+  </si>
+  <si>
+    <t>page_add_file_rmap()</t>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'heap spraying', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Heap_spraying'}]</t>
+  </si>
+  <si>
+    <t>Unsharing KSM-placed zero pages</t>
+  </si>
+  <si>
+    <t>gup</t>
+  </si>
+  <si>
+    <t>__split_huge_page_tail()</t>
+  </si>
+  <si>
+    <t>40470</t>
+  </si>
+  <si>
+    <t>['cfeed8ffe55b37fa10286aaaa1369da00cb88440', '85a1333417a7561c1d10a77d6c873a37e6ea63a0', '3d2c908768877714a354ee6d7bf93e801400d5e2', '07e09c483cbef2a252f75d95670755a0607288f5']</t>
+  </si>
+  <si>
+    <t>Setting up N page table entries at once</t>
+  </si>
+  <si>
+    <t>Retrieving monitoring results snapshot</t>
+  </si>
+  <si>
+    <t>FOLL_PIN</t>
+  </si>
+  <si>
+    <t>update_mmu_cache_range</t>
+  </si>
+  <si>
+    <t>FSCACHE_COOKIE_NO_DATA_TO_READ</t>
+  </si>
+  <si>
+    <t>free table page</t>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'table page', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Page_table'}]</t>
+  </si>
+  <si>
+    <t>mmap_write_lock()</t>
+  </si>
+  <si>
+    <t>pmd_t</t>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'mmu', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Memory_management_unit'}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>[{'ngram_mention': 'NUMA', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Non-uniform_memory_access'}]</t>
-  </si>
-  <si>
-    <t>40472</t>
-  </si>
-  <si>
-    <t>['bf29bfaa54901a4bdee2a18cd10eb951a884a5f9']</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jbd2_journal_write_metadata_buffer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NUMA PTE faults</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'NUMA', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Non-uniform_memory_access'}, {'ngram_mention': 'PTE faults', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Page_fault'}, {'ngram_mention': 'PTE', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Page_table#PTE'}]</t>
-  </si>
-  <si>
-    <t>destroy_large_folio()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'NUMA', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Non-uniform_memory_access'}, {'ngram_mention': 'PTE', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Page_table#PTE'}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'mmap', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Mmap'},{'ngram_mention': 'lock', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Lock_(computer_science)'}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>[]</t>
-  </si>
-  <si>
-    <t>40471</t>
-  </si>
-  <si>
-    <t>['99a9e0b83ab9955e604397717b82267feb021df3', 'dd6fa0b61814492476463149c91110e529364e82', '454a00c40a21c59e99c526fe8cc57bd029cf8f0e', '8dc4a8f1e038189cb575f89bcd23364698b88cc1', '0f2f43fabb95192c73b19586ef7536d7ac7c2f8c']</t>
-  </si>
-  <si>
-    <t>in hpage_collapse_scan_file()</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'hpage', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Page_(computer_memory)#Huge_pages'}]</t>
-  </si>
-  <si>
-    <t>40465</t>
-  </si>
-  <si>
-    <t>['ad1ac8d94cde7709e3ea5360963ff70df2c0b4aa', '13cf577e6b66a148d6d63f5ef7801f4b61d5850f', '1d65b771bc08cd054cf6d3766a72e113dc46d62f', '1043173eb5eb351a1dba11cca12705075fe74a9e', 'd50791c2bee9ed97b1dd81db9bbb11caddcdfb0d']</t>
-  </si>
-  <si>
-    <t>Static random selection</t>
-  </si>
-  <si>
-    <t>40449</t>
-  </si>
-  <si>
-    <t>['3c6152940584290668b35fa0800026f6a1ae05fe']</t>
-  </si>
-  <si>
-    <t>mmap lock hold time</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'mmap', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Memory-mapped_file'},{'ngram_mention': 'lock', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Lock_(computer_science)'}]</t>
-  </si>
-  <si>
-    <t>['284e05920498788c5df1a7dd6424adb426498e1c', '350f6bbca1de515cd7519a33661cefc93ea06054', '4ec31152a80d83d74d231d964703a721236244ef', 'c4fd825e188471d4d2796e02729dd029b3b23210', '8f5fd0e1a02020062c52063f15d4e5c426ee3547']</t>
-  </si>
-  <si>
-    <t>do_cow_fault</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'cow', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Copy-on-write'}]</t>
-  </si>
-  <si>
-    <t>THPs</t>
-  </si>
-  <si>
-    <t>['a349d72fd9efc87c8fd1d16d3164752d84a7275b', '146b42e07494e45f7c7bcf2cbf7afd1424afd78e', 'de2e4626c70605b7ff5ab32b75336547663d465f', '3d140215a6aec37f112aec1606c6a76f7e4443d3', '8211dad6279817a8966ff6b74c2c588dd4166f45']</t>
-  </si>
-  <si>
-    <t>per-page to per-folio</t>
-  </si>
-  <si>
-    <t>['bcc6cc832573a99d1f935c89a28e2c71fd1aaf0c', '63497b716be30fb268b2358836efb4bb9e615f15', 'ac4cfaccedac891d29560ddfb64cb5c1e710e1e1', '8b5989f3333717273d02ab87ba8781f72a6783ab', 'e49da075cfdbd9fdf27103e1f454d4a0401d9025']</t>
-  </si>
-  <si>
-    <t>kunit</t>
-  </si>
-  <si>
-    <t>40477</t>
-  </si>
-  <si>
-    <t>['ab9bda001b681c293fb72ef21f083adfbcd78028', '2f1abcfccd86826777b2bcb2bb4e0d149a90ccf5', '26713c8908752a7edca18dcafe88e36dccfb41a2', '4c45c20d53488d05da6e240f3ac4dffbd3963f94', '96a7cb23778a4b2f8fbe714cbcfa15d1475d430f']</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/transparent_huge_pages</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cacheline</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'filemap', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Memory-mapped_file'}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>folio_add_file_rmap_range()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'KSM', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Kernel_same-page_merging'}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'inode', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Inode'}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'lock', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Lock_(computer_science)'}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMA migration handling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'page table', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Page_table'}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'page tables', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Page_table'}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'vma', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Virtual_memory'},{'ngram_mention': 'lock', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Lock_(computer_science)'}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'VMA', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Virtual_memory'},{'ngram_mention': 'locks', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Lock_(computer_science)'}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Nios_II</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>follow_hugetlb_page</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenRISC architecture</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'OpenRISC', 'wikipedia_link': 'https://en.wikipedia.org/wiki/OpenRISC'}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>THP</t>
-  </si>
-  <si>
-    <t>['203b7b6aad6769a43987deb81c35456de8bb16c7', 'af4fcb0729329cc4b3f6977d7f75562a00174bd1', '9f1f5b60e76d44fa85fef6970b7477f72d3999eb', 'de74976eb65151a2f568e477fc2e0032df5b22b4', '86f35f69db8e7d169c36472a349507ab0a461f49']</t>
-  </si>
-  <si>
-    <t>gup test matrix</t>
-  </si>
-  <si>
-    <t>40450</t>
-  </si>
-  <si>
-    <t>['4849807114b83e1897381ed3f851632f376a0b7e', '2bc48136224592fe4f8f50629d0469d6d0274207', 'de4ec376df7bd2db4aa887b350a681686ea54064']</t>
-  </si>
-  <si>
-    <t>cacheline</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'cacheline', 'wikipedia_link': 'https://en.wikipedia.org/wiki/False_sharing'}]</t>
-  </si>
-  <si>
-    <t>40474</t>
-  </si>
-  <si>
-    <t>['aee79d4e5271cee4ffa89ed830189929a6272eb8']</t>
-  </si>
-  <si>
-    <t>VMA insertion</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'VMA', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Virtual_memory'}]</t>
-  </si>
-  <si>
-    <t>40453</t>
-  </si>
-  <si>
-    <t>['6852c46c783d20a4c0153d14d2990040e5e6e47e']</t>
-  </si>
-  <si>
-    <t>buffer</t>
-  </si>
-  <si>
-    <t>40454</t>
-  </si>
-  <si>
-    <t>['8147c4c4546f9f05ef03bb839b741473b28bb560', '5f6d28622ffc7fa356b2745b088c831ebb8546b0']</t>
-  </si>
-  <si>
-    <t>userfaultfd API</t>
-  </si>
-  <si>
-    <t>['597425df4fecd272ca48f73feca7833433c16e12', '8a13897fb0daa8f56821f263f0c63661e1c6acae', 'f442ab50f5fb581804e4c4b6f8ead394fe975589', '7cf0f9e83769cb7862dff0221a3ace67d9b2ed9f', '99aa77215ad0254bf15f84e58fe9f3f1d942ff0f']</t>
-  </si>
-  <si>
-    <t>destroy_large_folio</t>
-  </si>
-  <si>
-    <t>VMA operations</t>
-  </si>
-  <si>
-    <t>for large folio</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'for large folio', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Contiguous_memory_allocation'}, {'ngram_mention': 'for large folio', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Translation_lookaside_buffer'}]</t>
-  </si>
-  <si>
-    <t>Per-page to Per-folio</t>
-  </si>
-  <si>
-    <t>['27a8b944fe91503ba15241d9a8504a34af0009fa', '15fa3e8e32692a423209a1808ef098f7ec3174f5', '994209410919f2b84b7e4ab2e78785d9715308ad', '063e409dcc37a5834fe94342b3cbcfe17d094eed', 'e70bbca607424dbb236cc641adba39c2cc0d65c5']</t>
-  </si>
-  <si>
-    <t>MADV_UNMERGEABLE</t>
-  </si>
-  <si>
-    <t>40458</t>
-  </si>
-  <si>
-    <t>['79271476b3362a9e69adae949a520647f8af3559', 'e2942062e01df85b4692460fe5b48ab0c90fdb95', '6080d19f07043ade61094d0f58b14c05e1694a39', '1a8e84305783bddbae708f28178c6d0aa6321913', '3d0745e59c840e64c6b7bf102c43bec29337605d']</t>
-  </si>
-  <si>
-    <t>Entirely</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'pte', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Page_table#PTE'},{'ngram_mention': 'thp', 'wikipedia_link': 'https://en.wikipedia.org/wiki/transparent_huge_pages'}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>swapcache</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'lseek', 'wikipedia_link': 'https://en.wikipedia.org/wiki/lseek'}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'slab', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Slab_allocation'}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'dcache','wikipedia_link': 'https://en.wikipedia.org/wiki/Directory_(computing)#Lookup_cache'}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAMOS tried regions</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'vma', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Virtual_memory'}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'pgtable', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Page_table'},{'ngram_mention': 'pte', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Page_table#PTE'}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minor performance overhead</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'overhead', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Overhead_(computing)'}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/OpenRISC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nios2 architecture</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'ngram_mention':'Nios2', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Nios_II'}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KSM-placed zeropages</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Slab_allocation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/PA-RISC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'Parisc', 'wikipedia_link': 'https://en.wikipedia.org/wiki/PA-RISC'}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>page flags</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>heap spraying prevention</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>noise</t>
-  </si>
-  <si>
-    <t>filemap_map_folio_range()</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'filemap', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Memory-mapped_file'}]</t>
-  </si>
-  <si>
-    <t>Unneeded</t>
-  </si>
-  <si>
-    <t>40456</t>
-  </si>
-  <si>
-    <t>['479c33049116f2d138b4dfec328961881cc26b33', '9962ed64bd2154863ab3b63b15a2b55e39dc7117', '6d2790d95d7cffaf0def36270032ce5228dd43a5', 'a3ed1e9b63a2703caab4fe63ddb560991a5f618c', 'bc74b53f29e1025a08e97f8e507968608a567f26']</t>
-  </si>
-  <si>
-    <t>__lruvec_stat for large folio</t>
-  </si>
-  <si>
-    <t>folio_add_file_rmap_range()</t>
-  </si>
-  <si>
-    <t>slab allocator</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Slab_allocation</t>
-  </si>
-  <si>
-    <t>40476</t>
-  </si>
-  <si>
-    <t>['a5f6164831104a7441a0c4101c5b74cd59fbdfa6', 'b94692e84dccf12dd30839c4e97b9ba028036a8f', 'ab1cd02083d046a25b48a2cad71ace6d5ddf0e9e', '016fec91013cfb27c9f5a101a87ae8266537fed1', '8f03d74f716313892908819a389ff9ede483c3a5']</t>
-  </si>
-  <si>
-    <t>KSM-placed zeropages</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'KSM-placed zeropages', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Kernel_same-page_merging'}]</t>
-  </si>
-  <si>
-    <t>40478</t>
-  </si>
-  <si>
-    <t>['8b47933544a68a62a9c4e35f8d8a6d2a2c935823']</t>
-  </si>
-  <si>
-    <t>If cachefiles object contains data when opened</t>
-  </si>
-  <si>
-    <t>40468</t>
-  </si>
-  <si>
-    <t>['b4fa966f03b7401ceacd4ffd7227197afb2b8376', '0201ebf274a306a6ebb95e5dc2d6a0a27c737cac']</t>
-  </si>
-  <si>
-    <t>truncate_inode_pages_final</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'node', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Inode'}]</t>
-  </si>
-  <si>
-    <t>critical section</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Critical_section</t>
-  </si>
-  <si>
-    <t>vma_assert_write_locked()</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'vma', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Virtual_memory'}]</t>
-  </si>
-  <si>
-    <t>40463</t>
-  </si>
-  <si>
-    <t>['49b0638502da097c15d46cd4e871dbaa022caf7c', 'ce2fc5fffdfa9fc1412aff108afa102ddf82fd2b', 'e727bfd5e73a35ecbc4a01a15c659b9fafaa97c0', '60081bf19b0ec8fa40c589bd361fa2bc763f1050', 'ad9f006351c3368171458ae7ab14d72f031b239f']</t>
-  </si>
-  <si>
-    <t>bio_first_folio_all()</t>
-  </si>
-  <si>
-    <t>pgtable management</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'pgtable', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Page_table'}]</t>
-  </si>
-  <si>
-    <t>['cf95e337cb63cfbf5c9ea1a1f64f9818b979e3b3', '610d06576737f5401647a4aab46558c1114898fb']</t>
-  </si>
-  <si>
-    <t>OSQ_Lock</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'locks', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Lock_(computer_science)'},{'ngram_mention': 'OSQ_Lock', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Compare-and-swap'}, {'ngram_mention': 'OSQ_Lock', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Spinlock#MCS_lock'}]</t>
-  </si>
-  <si>
-    <t>NUMA migration handling</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Demand_paging https://en.wikipedia.org/wiki/Non-uniform_memory_access#Balancing_and_optimization</t>
-  </si>
-  <si>
-    <t>hugetlb gup requests</t>
-  </si>
-  <si>
-    <t>folio_undo_large_rmappable()</t>
-  </si>
-  <si>
-    <t>ops-&gt;migrate_to_ram</t>
-  </si>
-  <si>
-    <t>40464</t>
-  </si>
-  <si>
-    <t>['b243dcbf2f13856e39e18df3a15a65f6fe33db85', '7a32b58be9bab8f0440a4af526bfb1269e5affdb', '4089eef0e6ac1a179c58304c657b3df3bb6fe509', 'fdc724d6aa44efd75cc9b6a3c3900baac44bc50a', '1235ccd05b6dd6970ff50baea99aa994023fbc4a']</t>
-  </si>
-  <si>
-    <t>KVM</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Kernel-based_Virtual_Machine</t>
-  </si>
-  <si>
-    <t>replace_page_tables()</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'replace_page_tables()', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Read-copy-update'},{'ngram_mention': 'page table', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Page_table'}]</t>
-  </si>
-  <si>
-    <t>page table range API</t>
-  </si>
-  <si>
-    <t>['e724e7aaf9ca794670a4d4931af7a7e24e37fec3', '9ff633944165d11c53c088d9596db3da66e90396', '876397837d582ce72f977ac3e635ce74eebcecc9', 'a6d01af08b2e40772cf97e700b699850f6862886', '5553b15a4bbba8039e1f31b63642048286f540dc']</t>
-  </si>
-  <si>
-    <t>vma lock</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'vma', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Virtual_memory'}],{'ngram_mention': 'lock', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Lock_(computer_science)'}</t>
-  </si>
-  <si>
-    <t>own ioremap_prot(), ioremap() and iounmap() definitions</t>
-  </si>
-  <si>
-    <t>['0b1f77e74b5a9234e83dc89f1593b769547a37fa', '8d05554dca2af6a77dc38a152f4e84fdf7e35179', '53c98e35dcbcacdb8e5c4d9c8fd6dfa8962af5c7', '7613366a190202a8ebe8090ca4758b551f1b7feb', 'dfdc6ba95768b4935058dcf2a8a09874289ba88f']</t>
-  </si>
-  <si>
-    <t>Architectures</t>
-  </si>
-  <si>
-    <t>do_shared_fault</t>
-  </si>
-  <si>
-    <t>accessed bit</t>
-  </si>
-  <si>
-    <t>page_add_file_rmap</t>
-  </si>
-  <si>
-    <t>Per-VMA locks</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'locks', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Lock_(computer_science)'}]</t>
-  </si>
-  <si>
-    <t>change in flag granularity</t>
-  </si>
-  <si>
-    <t>Nios2 architecture</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Nios_II</t>
-  </si>
-  <si>
-    <t>follow_hugetlb_page</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'hugetlb_page', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Page_(computer_memory)#Huge_pages'}]</t>
-  </si>
-  <si>
-    <t>numa_cma=</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'numa', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Non-uniform_memory_access'}]</t>
-  </si>
-  <si>
-    <t>OpenRISC architecture</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'OpenRISC architecture', 'wikipedia_link': 'https://en.wikipedia.org/wiki/OpenRISC'}]</t>
-  </si>
-  <si>
-    <t>collapse_pte_mapped_thp()</t>
-  </si>
-  <si>
-    <t>swapcache</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'swapcache', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Page_cache'}, {'ngram_mention': 'swapcache', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Page_replacement_algorithm'}]</t>
-  </si>
-  <si>
-    <t>['f9bff0e31881d03badf191d3b0005839391f5f2b', 'a379322022c0961fe0b638cdd842d3c38eeff92c', '3a255267f6dff40e193501cf731f409ce9175503', 'bc60abfbe687e886f1c38d49ef2a00e90b4b49cf', '29d26f1215de14721188988a59b1426abb85b7be']</t>
-  </si>
-  <si>
-    <t>specifying optional tests</t>
-  </si>
-  <si>
-    <t>cma_declare_contiguous_nid()</t>
-  </si>
-  <si>
-    <t>DAMON</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'DAMON', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Profiling_(computer_programming)'}]</t>
-  </si>
-  <si>
-    <t>lseek after HWPOISON subpage</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'lseek', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Seek_(computing)'}]</t>
-  </si>
-  <si>
-    <t>40460</t>
-  </si>
-  <si>
-    <t>['9e130c4b000b0a3f0bf4b4c8e714bfe3d06ff4cc', 'b79f8eb408d0468df0d6082ed958b67d94adce65', '38c1ddbde6c6593e7c4bc17bde87232b7c577e7b', 'ba91e7e5d15a22946e6531c898e197e128bb6634']</t>
-  </si>
-  <si>
-    <t>multiple copies of generic slab caches</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'slab caches', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Slab_allocation'}]</t>
-  </si>
-  <si>
-    <t>vma_start_write()</t>
-  </si>
-  <si>
-    <t>__get_user_pages()</t>
-  </si>
-  <si>
-    <t>DMA_PERNUMA_CMA</t>
-  </si>
-  <si>
-    <t>40473</t>
-  </si>
-  <si>
-    <t>['22e4a348f87c59df2c02f1efb7ba9a56b622c7b8']</t>
-  </si>
-  <si>
-    <t>PG_dcache_clean</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'dcache, 'wikipedia_link': 'https://en.wikipedia.org/wiki/Directory_(computing)#Lookup_cache'}]</t>
-  </si>
-  <si>
-    <t>DAMOS tried regions</t>
-  </si>
-  <si>
-    <t>40459</t>
-  </si>
-  <si>
-    <t>['b69f92a741405336fb17a8a3d67fc144192fe8e2', '6ad243b83b5094026fdb3171711ddb25246b3d8a', 'b823cb08e66212f5d90b5eaad59b2371b930e33f', 'ea7f03a441b58abcc9b619570a628c53e80665c6']</t>
-  </si>
-  <si>
-    <t>CoW</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Copy-on-write</t>
-  </si>
-  <si>
-    <t>['dd767aaa2fc8f1a000df0504f6231afcafe8a8e9', '458568c92953dee3716234711f1a2830a35261f3', '5502ea44f5ade35d32a397353956bc026b870400', 'ffe1e7861211aafe12977a3ed2f11bb6fe1e77ea', '57edfcfd3419b4799353d8cbd6ce49da075cfdbd']</t>
-  </si>
-  <si>
-    <t>gup_test</t>
-  </si>
-  <si>
-    <t>Operations on file's i_mmap tree</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'mmap', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Mmap'}]</t>
-  </si>
-  <si>
-    <t>HUGETLB_PAGE_DTOR</t>
-  </si>
-  <si>
-    <t>i_mmap tree</t>
-  </si>
-  <si>
-    <t>llist_del_all</t>
-  </si>
-  <si>
-    <t>flush_dcache_folio()</t>
-  </si>
-  <si>
-    <t>pmd_ptlock_init()</t>
-  </si>
-  <si>
-    <t>40451</t>
-  </si>
-  <si>
-    <t>['edbaefe53c6418ea11372e6b3ce952ab8caa1f78', '75b25d49ca6638f9a4eac47cff508b174743d907', '7e5f42ae3413785c68c383acb787f9ce8f243096', '6ed1b8a09deb0b99fd3b54e11535c80284689555', '7e11dca14b27e11596a0c49c7d20bc7816cb0508']</t>
-  </si>
-  <si>
-    <t>vma locking</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'vma locking', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Virtual_memory'}]</t>
-  </si>
-  <si>
-    <t>pgtable_pte_ctor</t>
-  </si>
-  <si>
-    <t>free_transhuge_folio()</t>
-  </si>
-  <si>
-    <t>separate cache line</t>
-  </si>
-  <si>
-    <t>descriptor</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'descriptor', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Descriptor'}]</t>
-  </si>
-  <si>
-    <t>['f7bda0d85dd7733143b5ea66987cb9b102bd0189', '9a35de4ffc209bd7956c4811ad17c4883791db43', 'bf2d4334f72e4e033166c5a3bf1331a7238eab9d', 'f5ecca06b3a5d0371ee27ee08aa06c686407a8af', '1865484af6b2ced2f367c1042b5f3816c11db148']</t>
-  </si>
-  <si>
-    <t>Minor performance overhead</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'overhead', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Overhead_(computing)'}]</t>
-  </si>
-  <si>
-    <t>Parisc architecture</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/PA-RISC</t>
-  </si>
-  <si>
-    <t>page_add_file_rmap()</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'page_add_file_rmap()', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Memory_management'}, {'ngram_mention': 'page_add_file_rmap()', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Memory-mapped_file'}]</t>
-  </si>
-  <si>
-    <t>page flags</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'page flags', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Page_replacement_algorithm'}]</t>
-  </si>
-  <si>
-    <t>heap spraying prevention</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'heap spraying', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Heap_spraying'}]</t>
-  </si>
-  <si>
-    <t>Unsharing KSM-placed zero pages</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'zero', 'wikipedia_link': 'https://en.wikipedia.org/wiki//dev/zero'}, {'ngram_mention': 'KSM-placed', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Kernel-based_Virtual_Machine'}]</t>
-  </si>
-  <si>
-    <t>gup</t>
-  </si>
-  <si>
-    <t>__split_huge_page_tail()</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': '__split_huge_page_tail()', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Page_(computer_memory)#Multiple_page_sizes'}]</t>
-  </si>
-  <si>
-    <t>40470</t>
-  </si>
-  <si>
-    <t>['cfeed8ffe55b37fa10286aaaa1369da00cb88440', '85a1333417a7561c1d10a77d6c873a37e6ea63a0', '3d2c908768877714a354ee6d7bf93e801400d5e2', '07e09c483cbef2a252f75d95670755a0607288f5']</t>
-  </si>
-  <si>
-    <t>Setting up N page table entries at once</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'page table', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Page_table'}]</t>
-  </si>
-  <si>
-    <t>Retrieving monitoring results snapshot</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'monitoring', 'wikipedia_link': 'https://simple.wikipedia.org/wiki/Monitoring'}]</t>
-  </si>
-  <si>
-    <t>jbd2_journal_write_metadata_buffer</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'jbd2_journal', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Journaling_block_device'}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'jbd2', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Journaling_block_device'}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/ARM_architecture_family</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ARM architecture</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/ARM_architecture_family</t>
-  </si>
-  <si>
-    <t>FOLL_PIN</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'PIN', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Virtual_memory#Pinned_pages'}]</t>
-  </si>
-  <si>
-    <t>update_mmu_cache_range</t>
-  </si>
-  <si>
-    <t>FSCACHE_COOKIE_NO_DATA_TO_READ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'ARM', 'wikipedia_link': 'https://en.wikipedia.org/wiki/ARM_architecture_family'}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>[{'ngram_mention': 'FSCACHE', 'wikipedia_link': 'https://en.wikipedia.org/wiki/CacheFS'}]</t>
-  </si>
-  <si>
-    <t>free table page</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'table page', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Page_table'}]</t>
-  </si>
-  <si>
-    <t>mmap_write_lock()</t>
-  </si>
-  <si>
-    <t>[{'ngram_mention': 'mmap', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Mmap'}, {'ngram_mention': 'write_lock()', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Readers%E2%80%93writer_lock'}, {'ngram_mention': 'mmap, 'wikipedia_link': 'https://en.wikipedia.org/wiki/Memory-mapped_file'}]</t>
-  </si>
-  <si>
-    <t>pmd_t</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'ngram_mention': 'mmap', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Mmap'}, {'ngram_mention': 'write lock', 'wikipedia_link': 'https://en.wikipedia.org/wiki/write_lock'}]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,343 +766,35 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1082,314 +817,42 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1674,27 +1137,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.4038461538462" customWidth="1"/>
-    <col min="3" max="3" width="14.2596153846154" customWidth="1"/>
-    <col min="6" max="6" width="16.8173076923077" customWidth="1"/>
-    <col min="7" max="7" width="14.4230769230769" customWidth="1"/>
+    <col min="2" max="2" width="27.3828125" customWidth="1"/>
+    <col min="3" max="3" width="14.23046875" customWidth="1"/>
+    <col min="6" max="6" width="51.53515625" customWidth="1"/>
+    <col min="7" max="7" width="28.07421875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1713,7 +1176,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1723,7 +1186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1742,7 +1205,7 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
@@ -1752,7 +1215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1771,8 +1234,8 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
+      <c r="G3" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
@@ -1781,7 +1244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1797,7 +1260,7 @@
       <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
@@ -1807,7 +1270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1826,22 +1289,22 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>26</v>
       </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:9" ht="127.3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>28</v>
+      <c r="B6" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -1855,8 +1318,8 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>29</v>
+      <c r="G6" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -1865,12 +1328,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1884,22 +1347,22 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>31</v>
+      <c r="G7" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1913,22 +1376,22 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>35</v>
+      <c r="G8" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1942,22 +1405,22 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>31</v>
+      <c r="G9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="113.15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -1971,22 +1434,22 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>42</v>
+      <c r="G10" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -2000,8 +1463,8 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>45</v>
+      <c r="G11" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -2010,41 +1473,41 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
+      <c r="F12" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -2058,22 +1521,22 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>31</v>
+      <c r="G13" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H13" t="s">
         <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -2084,51 +1547,51 @@
       <c r="E14" t="b">
         <v>0</v>
       </c>
-      <c r="G14" t="s">
-        <v>31</v>
+      <c r="G14" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>53</v>
+      <c r="B15" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
+      <c r="F15" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="H15" t="s">
         <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -2142,22 +1605,22 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>31</v>
+      <c r="G16" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>58</v>
+      <c r="B17" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -2171,22 +1634,22 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>59</v>
+      <c r="G17" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -2200,22 +1663,22 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>63</v>
+      <c r="G18" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="H18" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -2229,22 +1692,22 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>31</v>
+      <c r="G19" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H19" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -2258,22 +1721,22 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>31</v>
+      <c r="G20" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H20" t="s">
         <v>22</v>
       </c>
       <c r="I20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -2287,22 +1750,22 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>31</v>
+      <c r="G21" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -2316,22 +1779,22 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>63</v>
+      <c r="G22" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="H22" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -2345,22 +1808,22 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>74</v>
+      <c r="G23" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="H23" t="s">
         <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -2374,22 +1837,22 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>31</v>
+      <c r="G24" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H24" t="s">
         <v>18</v>
       </c>
       <c r="I24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
@@ -2403,25 +1866,25 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>31</v>
+      <c r="G25" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H25" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2432,22 +1895,22 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>31</v>
+      <c r="G26" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -2461,25 +1924,25 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>83</v>
+      <c r="G27" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="H27" t="s">
         <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2490,22 +1953,22 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>31</v>
+      <c r="G28" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H28" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
@@ -2519,22 +1982,22 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>31</v>
+      <c r="G29" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H29" t="s">
         <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>88</v>
+      <c r="B30" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -2548,22 +2011,22 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>31</v>
+      <c r="G30" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H30" t="s">
         <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
@@ -2572,27 +2035,27 @@
         <v>1</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="H31" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>93</v>
+      <c r="B32" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -2606,25 +2069,25 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>94</v>
+      <c r="G32" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="H32" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -2635,22 +2098,22 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>31</v>
+      <c r="G33" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H33" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -2659,27 +2122,27 @@
         <v>0</v>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>101</v>
+      <c r="G34" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="H34" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
@@ -2691,24 +2154,24 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" t="s">
-        <v>31</v>
+        <v>89</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H35" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
@@ -2722,22 +2185,22 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>105</v>
+      <c r="G36" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="H36" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="I36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -2751,22 +2214,22 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>31</v>
+      <c r="G37" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H37" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
@@ -2780,22 +2243,22 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>110</v>
+      <c r="G38" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="H38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -2809,51 +2272,49 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>113</v>
+      <c r="G39" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="H39" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>114</v>
+      <c r="B40" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G40" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
       </c>
       <c r="I40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
@@ -2867,22 +2328,22 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>31</v>
+      <c r="G41" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
@@ -2896,22 +2357,22 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>31</v>
+      <c r="G42" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H42" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
@@ -2925,22 +2386,22 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>31</v>
+      <c r="G43" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H43" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="I43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
@@ -2952,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>122</v>
-      </c>
-      <c r="G44" t="s">
-        <v>31</v>
+        <v>105</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H44" t="s">
         <v>22</v>
@@ -2964,12 +2425,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
@@ -2983,22 +2444,22 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>124</v>
+      <c r="G45" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="H45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I45" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
@@ -3012,22 +2473,22 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>110</v>
+      <c r="G46" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="H46" t="s">
         <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="127.3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
@@ -3041,25 +2502,25 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>128</v>
+      <c r="G47" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="H47" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="I47" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -3070,22 +2531,22 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>31</v>
+      <c r="G48" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H48" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
@@ -3099,22 +2560,22 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>31</v>
+      <c r="G49" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H49" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I49" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
@@ -3125,8 +2586,8 @@
       <c r="E50" t="b">
         <v>0</v>
       </c>
-      <c r="G50" t="s">
-        <v>31</v>
+      <c r="G50" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H50" t="s">
         <v>13</v>
@@ -3135,12 +2596,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
         <v>16</v>
@@ -3154,8 +2615,8 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>31</v>
+      <c r="G51" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H51" t="s">
         <v>13</v>
@@ -3164,12 +2625,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
@@ -3183,22 +2644,22 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>31</v>
+      <c r="G52" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H52" t="s">
         <v>18</v>
       </c>
       <c r="I52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="127.3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
@@ -3212,22 +2673,22 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>136</v>
+      <c r="G53" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="H53" t="s">
         <v>13</v>
       </c>
       <c r="I53" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
@@ -3241,22 +2702,22 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>31</v>
+      <c r="G54" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H54" t="s">
         <v>18</v>
       </c>
       <c r="I54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>138</v>
+      <c r="B55" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="C55" t="s">
         <v>16</v>
@@ -3265,27 +2726,27 @@
         <v>1</v>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F55" t="s">
-        <v>139</v>
-      </c>
-      <c r="G55" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="H55" t="s">
         <v>18</v>
       </c>
       <c r="I55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>140</v>
+      <c r="B56" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="C56" t="s">
         <v>10</v>
@@ -3294,27 +2755,27 @@
         <v>0</v>
       </c>
       <c r="E56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>141</v>
+      <c r="G56" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="H56" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
@@ -3328,51 +2789,51 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>143</v>
+      <c r="G57" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="H57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" t="s">
         <v>26</v>
       </c>
-      <c r="I57" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+    </row>
+    <row r="58" spans="1:9" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>144</v>
+      <c r="B58" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C58" t="s">
         <v>16</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
-      <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s">
-        <v>145</v>
+      <c r="F58" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="H58" t="s">
         <v>18</v>
       </c>
       <c r="I58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="127.3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
         <v>10</v>
@@ -3386,22 +2847,22 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
+      <c r="G59" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="H59" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I59" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>147</v>
+      <c r="B60" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="C60" t="s">
         <v>16</v>
@@ -3415,22 +2876,22 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>148</v>
+      <c r="G60" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="H60" t="s">
         <v>18</v>
       </c>
       <c r="I60" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
@@ -3444,22 +2905,22 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>31</v>
+      <c r="G61" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H61" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I61" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="C62" t="s">
         <v>10</v>
@@ -3473,22 +2934,22 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>31</v>
+      <c r="G62" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H62" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" t="s">
         <v>26</v>
       </c>
-      <c r="I62" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="C63" t="s">
         <v>16</v>
@@ -3502,22 +2963,22 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>153</v>
+      <c r="G63" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="H63" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="C64" t="s">
         <v>16</v>
@@ -3531,22 +2992,22 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>155</v>
+      <c r="G64" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="H64" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="I64" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="C65" t="s">
         <v>16</v>
@@ -3560,22 +3021,22 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>159</v>
+      <c r="G65" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="H65" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I65" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="C66" t="s">
         <v>10</v>
@@ -3589,22 +3050,22 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>31</v>
+      <c r="G66" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I66" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
@@ -3618,22 +3079,22 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>31</v>
+      <c r="G67" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H67" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I67" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
         <v>16</v>
@@ -3647,22 +3108,22 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>31</v>
+      <c r="G68" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H68" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="I68" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
         <v>10</v>
@@ -3676,22 +3137,22 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>166</v>
+      <c r="G69" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="H69" t="s">
         <v>18</v>
       </c>
       <c r="I69" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>167</v>
+      <c r="B70" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="C70" t="s">
         <v>16</v>
@@ -3705,22 +3166,22 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>31</v>
+      <c r="G70" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H70" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="I70" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="C71" t="s">
         <v>16</v>
@@ -3732,24 +3193,24 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>171</v>
-      </c>
-      <c r="G71" t="s">
-        <v>31</v>
+        <v>139</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H71" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I71" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
@@ -3763,22 +3224,22 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>31</v>
+      <c r="G72" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H72" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I72" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C73" t="s">
         <v>16</v>
@@ -3792,22 +3253,22 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>175</v>
+      <c r="G73" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="H73" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I73" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C74" t="s">
         <v>16</v>
@@ -3821,22 +3282,22 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>31</v>
+      <c r="G74" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H74" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I74" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="C75" t="s">
         <v>16</v>
@@ -3850,22 +3311,22 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>175</v>
+      <c r="G75" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="H75" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I75" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="C76" t="s">
         <v>10</v>
@@ -3879,22 +3340,22 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>31</v>
+      <c r="G76" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H76" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="I76" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="C77" t="s">
         <v>10</v>
@@ -3908,22 +3369,22 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>166</v>
+      <c r="G77" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="H77" t="s">
         <v>18</v>
       </c>
       <c r="I77" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
@@ -3937,22 +3398,22 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>31</v>
+      <c r="G78" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H78" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="I78" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="C79" t="s">
         <v>16</v>
@@ -3966,22 +3427,22 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>184</v>
+      <c r="G79" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="H79" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="I79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="127.3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="C80" t="s">
         <v>10</v>
@@ -3995,22 +3456,22 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
+      <c r="G80" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="H80" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="I80" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="C81" t="s">
         <v>10</v>
@@ -4024,22 +3485,22 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>31</v>
+      <c r="G81" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H81" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I81" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="C82" t="s">
         <v>16</v>
@@ -4053,22 +3514,22 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>31</v>
+      <c r="G82" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H82" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I82" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="C83" t="s">
         <v>16</v>
@@ -4082,22 +3543,22 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>189</v>
+      <c r="G83" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="H83" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="I83" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
-        <v>191</v>
+      <c r="B84" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="C84" t="s">
         <v>16</v>
@@ -4111,22 +3572,22 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>192</v>
+      <c r="G84" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="H84" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I84" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C85" t="s">
         <v>16</v>
@@ -4135,27 +3596,27 @@
         <v>1</v>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
-      </c>
-      <c r="F85" t="s">
-        <v>194</v>
-      </c>
-      <c r="G85" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="H85" t="s">
         <v>18</v>
       </c>
       <c r="I85" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="C86" t="s">
         <v>10</v>
@@ -4164,27 +3625,27 @@
         <v>0</v>
       </c>
       <c r="E86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>196</v>
+      <c r="G86" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="H86" t="s">
         <v>18</v>
       </c>
       <c r="I86" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
-        <v>197</v>
+      <c r="B87" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="C87" t="s">
         <v>16</v>
@@ -4198,22 +3659,22 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>198</v>
+      <c r="G87" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="H87" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I87" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
-        <v>199</v>
+      <c r="B88" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C88" t="s">
         <v>16</v>
@@ -4227,22 +3688,22 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>200</v>
+      <c r="G88" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="H88" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I88" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="C89" t="s">
         <v>16</v>
@@ -4256,22 +3717,22 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>202</v>
+      <c r="G89" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="H89" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I89" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="C90" t="s">
         <v>16</v>
@@ -4285,22 +3746,22 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>31</v>
+      <c r="G90" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H90" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I90" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="C91" t="s">
         <v>10</v>
@@ -4314,80 +3775,80 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>205</v>
+      <c r="G91" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="H91" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="I91" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="C92" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
       </c>
       <c r="E92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>209</v>
+      <c r="G92" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="H92" t="s">
         <v>18</v>
       </c>
       <c r="I92" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>210</v>
-      </c>
-      <c r="C93" t="s">
-        <v>16</v>
+        <v>166</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>211</v>
+      <c r="G93" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="H93" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="I93" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
-        <v>212</v>
+      <c r="B94" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="C94" t="s">
         <v>10</v>
@@ -4401,22 +3862,22 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>213</v>
+      <c r="G94" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="H94" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I94" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
-        <v>214</v>
+      <c r="B95" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="C95" t="s">
         <v>16</v>
@@ -4425,27 +3886,27 @@
         <v>1</v>
       </c>
       <c r="E95" t="b">
-        <v>0</v>
-      </c>
-      <c r="F95" t="s">
-        <v>215</v>
-      </c>
-      <c r="G95" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="H95" t="s">
         <v>18</v>
       </c>
       <c r="I95" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="C96" t="s">
         <v>16</v>
@@ -4459,22 +3920,22 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>217</v>
+      <c r="G96" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="H96" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I96" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="C97" t="s">
         <v>10</v>
@@ -4488,22 +3949,22 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H97" t="s">
         <v>18</v>
       </c>
       <c r="I97" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="70.75" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="C98" t="s">
         <v>10</v>
@@ -4517,22 +3978,22 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>220</v>
+      <c r="G98" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="H98" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I98" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="C99" t="s">
         <v>16</v>
@@ -4546,22 +4007,22 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>222</v>
+      <c r="G99" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="H99" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I99" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="113.15" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="C100" t="s">
         <v>10</v>
@@ -4575,22 +4036,22 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>224</v>
+      <c r="G100" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="H100" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I100" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="C101" t="s">
         <v>16</v>
@@ -4604,21 +4065,27 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>31</v>
+      <c r="G101" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H101" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I101" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F40" r:id="rId1" display="https://en.wikipedia.org/wiki/Demand_paging https://en.wikipedia.org/wiki/Non-uniform_memory_access#Balancing_and_optimization"/>
+    <hyperlink ref="F12" r:id="rId1" xr:uid="{6D2C5C28-25A6-46F1-B1A0-9961C9333951}"/>
+    <hyperlink ref="F15" r:id="rId2" xr:uid="{15F80181-61B5-4F7C-8B5B-DCB309B728D1}"/>
+    <hyperlink ref="F55" r:id="rId3" xr:uid="{B8A2988D-AF25-4549-8FC7-3FF1F53B251C}"/>
+    <hyperlink ref="F58" r:id="rId4" xr:uid="{4D05708E-F958-45BB-A342-41BD5257D3FD}"/>
+    <hyperlink ref="F31" r:id="rId5" xr:uid="{AB16B06E-3C6E-400D-8E35-EE9B299BBDFA}"/>
+    <hyperlink ref="F85" r:id="rId6" xr:uid="{2BBFEB95-6B33-43EE-8C2F-812C8189F77A}"/>
+    <hyperlink ref="F95" r:id="rId7" xr:uid="{E3DEC3EC-11D4-499C-8858-F8BBADB04873}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data/entity_link_benchmark.xlsx
+++ b/data/entity_link_benchmark.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="24460" windowHeight="11480"/>
+    <workbookView windowWidth="28800" windowHeight="11420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
     <t>vma lock</t>
   </si>
   <si>
-    <t>[{'ngram_mention': 'vma', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Virtual_memory'}],{'ngram_mention': 'lock', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Lock_(computer_science)'}</t>
+    <t>[{'ngram_mention': 'vma', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Virtual_memory'},{'ngram_mention': 'lock', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Lock_(computer_science)'}]</t>
   </si>
   <si>
     <t>own ioremap_prot(), ioremap() and iounmap() definitions</t>
@@ -515,7 +515,7 @@
     <t>PG_dcache_clean</t>
   </si>
   <si>
-    <t>[{'ngram_mention': 'dcache, 'wikipedia_link': 'https://en.wikipedia.org/wiki/Directory_(computing)#Lookup_cache'}]</t>
+    <t>[{'ngram_mention': 'dcache','wikipedia_link': 'https://en.wikipedia.org/wiki/Directory_(computing)#Lookup_cache'}]</t>
   </si>
   <si>
     <t>DAMOS tried regions</t>
@@ -689,7 +689,7 @@
     <t>mmap_write_lock()</t>
   </si>
   <si>
-    <t>[{'ngram_mention': 'mmap', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Mmap'}, {'ngram_mention': 'write_lock()', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Readers%E2%80%93writer_lock'}, {'ngram_mention': 'mmap, 'wikipedia_link': 'https://en.wikipedia.org/wiki/Memory-mapped_file'}]</t>
+    <t>[{'ngram_mention': 'mmap', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Mmap'}, {'ngram_mention': 'write_lock()', 'wikipedia_link': 'https://en.wikipedia.org/wiki/Readers%E2%80%93writer_lock'}, {'ngram_mention': 'mmap ','wikipedia_link': 'https://en.wikipedia.org/wiki/Memory-mapped_file'}]</t>
   </si>
   <si>
     <t>pmd_t</t>
@@ -701,9 +701,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -744,9 +744,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -755,14 +793,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -783,10 +813,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -799,46 +836,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,15 +857,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -880,31 +880,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,7 +910,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,19 +940,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,31 +988,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,7 +1006,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,7 +1024,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,37 +1042,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,11 +1092,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1112,51 +1118,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,145 +1141,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1682,8 +1682,8 @@
   <sheetPr/>
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="N110" sqref="N110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
